--- a/MR/Diccionario de datos_Ejercicio8a.xlsx
+++ b/MR/Diccionario de datos_Ejercicio8a.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acmar\Downloads\Trabajos_Ing_Datos_Mariana_Alvarez\MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D73DBD5-4EAC-4B92-A8A5-F935A4727A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417674D3-7563-4D02-A479-5F7569F51C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2D468CDA-0F64-4069-ABBB-259ABB56850C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{2D468CDA-0F64-4069-ABBB-259ABB56850C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Diccionarios datos" sheetId="2" r:id="rId1"/>
+    <sheet name="Diccionarios datos_8a" sheetId="2" r:id="rId1"/>
+    <sheet name="Diccionario datos_8b" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="129">
   <si>
     <t>telefono</t>
   </si>
@@ -244,13 +245,193 @@
   </si>
   <si>
     <t>almacena el nombre de la ciudad de envío</t>
+  </si>
+  <si>
+    <t>Compania</t>
+  </si>
+  <si>
+    <t>Tabla que contiene los datos principales de la compañía</t>
+  </si>
+  <si>
+    <t>idCompania</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Este campo, guardará el id que identifica a la compañía</t>
+  </si>
+  <si>
+    <t>fechaFundacion</t>
+  </si>
+  <si>
+    <t>contiene la fecha de fundación de la empresa</t>
+  </si>
+  <si>
+    <t>repreLegal</t>
+  </si>
+  <si>
+    <t>tiene el nombre del representante legal de la empresa</t>
+  </si>
+  <si>
+    <t>Seguro</t>
+  </si>
+  <si>
+    <t>Tabla débil que tiene los datos de las pólizas que emite la compañía y que aseguran a los vehículos</t>
+  </si>
+  <si>
+    <t>idSeguro</t>
+  </si>
+  <si>
+    <t>Este campo, guardará el id que identifica al Seguro</t>
+  </si>
+  <si>
+    <t>estadoSeguro</t>
+  </si>
+  <si>
+    <t>contiene el estado del seguro (si está pago o pendiente)</t>
+  </si>
+  <si>
+    <t>tiene la fecha en la que inicia a funcionar el Seguro</t>
+  </si>
+  <si>
+    <t>costoSeguro</t>
+  </si>
+  <si>
+    <t>tiene el valor que debe pagar el cliente para tener el Seguro</t>
+  </si>
+  <si>
+    <t>fechaExpiracion</t>
+  </si>
+  <si>
+    <t>tiene la fecha en la que deja a funcionar el Seguro</t>
+  </si>
+  <si>
+    <t>valorAsegurado</t>
+  </si>
+  <si>
+    <t>Tiene el valor que puede asegurar la póliza en caso de daños</t>
+  </si>
+  <si>
+    <t>Automovil</t>
+  </si>
+  <si>
+    <t>Tabla que tiene los datos de los automóviles que hacen parte de la compañía</t>
+  </si>
+  <si>
+    <t>Este campo, guardará la placa del vehículo</t>
+  </si>
+  <si>
+    <t>serialChasis</t>
+  </si>
+  <si>
+    <t>guarda el número de serial del chasis del vehículo para usarlo en caso de daños</t>
+  </si>
+  <si>
+    <t>marca</t>
+  </si>
+  <si>
+    <t>guarda la marca del vehículo</t>
+  </si>
+  <si>
+    <t>guarda el modelo del vehículo</t>
+  </si>
+  <si>
+    <t>tipoAutomovil</t>
+  </si>
+  <si>
+    <t>guarda si el automovil es de carga o particular</t>
+  </si>
+  <si>
+    <t>anioFabri</t>
+  </si>
+  <si>
+    <t>tiene el año en el que fue fabricado el automóvil</t>
+  </si>
+  <si>
+    <t>cilindraje</t>
+  </si>
+  <si>
+    <t>guarda el valor de cilindraje del vehículo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK </t>
+  </si>
+  <si>
+    <t>guarda el id del Seguro al que corresponde</t>
+  </si>
+  <si>
+    <t>idDescAccidente</t>
+  </si>
+  <si>
+    <t>guarda la descripción del accidente al que está asociado</t>
+  </si>
+  <si>
+    <t>DescripcionAccidente</t>
+  </si>
+  <si>
+    <t>Este campo, guardará el id del accidente</t>
+  </si>
+  <si>
+    <t>idAccidente</t>
+  </si>
+  <si>
+    <t>guarda el id del accidente al que corresponde</t>
+  </si>
+  <si>
+    <t>cantidadVehiculos</t>
+  </si>
+  <si>
+    <t>guarda la cantidad de vehículos involucrados en el accidente</t>
+  </si>
+  <si>
+    <t>responsabilidad</t>
+  </si>
+  <si>
+    <t>guarda si fue culpable o víctima del accidente</t>
+  </si>
+  <si>
+    <t>Accidente</t>
+  </si>
+  <si>
+    <t>tabla que contiene los datos principales de los accidentes</t>
+  </si>
+  <si>
+    <t>tabla débil que contiene los datos secundarios de los accidentes</t>
+  </si>
+  <si>
+    <t>Este campo, guardará el id de la descripción del accidente</t>
+  </si>
+  <si>
+    <t>fechaAccidente</t>
+  </si>
+  <si>
+    <t>guarda la fecha en la que ocurrió el accidente</t>
+  </si>
+  <si>
+    <t>guarda en lugar del accidente</t>
+  </si>
+  <si>
+    <t>lugarAccidente</t>
+  </si>
+  <si>
+    <t>tipoHeridos</t>
+  </si>
+  <si>
+    <t>guarda si hay heridos con fracturas, quemaduras…</t>
+  </si>
+  <si>
+    <t>numeroMuertos</t>
+  </si>
+  <si>
+    <t>guarda la cantidad de personas fallecidas, en caso de que las haya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -359,13 +540,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -377,14 +561,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -401,61 +588,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>769620</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>97473</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>204415</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A523BF67-07E8-4FEB-A41C-BEB177D84B0A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6532245" y="525780"/>
-          <a:ext cx="4671378" cy="1600200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -777,52 +909,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49B9487-6B61-4275-BADB-6273FDFAF6C3}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="39.625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:5" ht="15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="10">
         <v>45727</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:5" ht="31.5" customHeight="1">
+    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="30">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -839,7 +971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.5">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -856,7 +988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -873,7 +1005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -890,7 +1022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.5">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,7 +1039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.5">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -924,7 +1056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.5">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -941,7 +1073,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.5">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -958,61 +1090,61 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="10">
         <v>45727</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="15"/>
     </row>
-    <row r="17" spans="1:5" ht="15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="30">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -1029,7 +1161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="28.5">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1046,7 +1178,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28.5">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -1063,7 +1195,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.5">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1080,7 +1212,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="28.5">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -1097,40 +1229,40 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:5" ht="15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="10">
         <v>45727</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:5" ht="15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="1:5" ht="30">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
@@ -1147,7 +1279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -1164,7 +1296,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
@@ -1181,7 +1313,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -1198,7 +1330,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -1215,40 +1347,40 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" ht="15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="10">
         <v>45727</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" spans="1:5" ht="15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
-    </row>
-    <row r="40" spans="1:5" ht="30">
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
@@ -1265,7 +1397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -1282,7 +1414,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
@@ -1299,7 +1431,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="28.5">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -1316,7 +1448,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="28.5">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>59</v>
       </c>
@@ -1333,7 +1465,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="42.75">
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -1350,7 +1482,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="28.5">
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>24</v>
       </c>
@@ -1367,7 +1499,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="28.5">
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
@@ -1384,7 +1516,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="28.5">
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>26</v>
       </c>
@@ -1401,40 +1533,40 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="9"/>
     </row>
-    <row r="53" spans="1:5" ht="15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="10">
         <v>45727</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="15"/>
     </row>
-    <row r="54" spans="1:5" ht="15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="9"/>
     </row>
-    <row r="55" spans="1:5" ht="30">
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>4</v>
       </c>
@@ -1451,7 +1583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>65</v>
       </c>
@@ -1468,7 +1600,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>66</v>
       </c>
@@ -1487,23 +1619,803 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B37:E37"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1926C569-29F2-43E8-A9B1-C4C8199B2AD2}">
+  <dimension ref="A1:E61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E61" sqref="A57:E61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10">
+        <v>45727</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="10">
+        <v>45727</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="10">
+        <v>45727</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
+        <v>50</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1">
+        <v>20</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1">
+        <v>20</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1">
+        <v>50</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1">
+        <v>50</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="10">
+        <v>45727</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="1">
+        <v>50</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1">
+        <v>50</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="10">
+        <v>45727</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="13"/>
+    </row>
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="1">
+        <v>50</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="1">
+        <v>50</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>